--- a/阿伟借出库存.xlsx
+++ b/阿伟借出库存.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zr/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2296,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3674,7 +3674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>108</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>108</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>111</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>114</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>116</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>119</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>122</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>124</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>127</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>127</v>
       </c>
@@ -3909,8 +3909,11 @@
       <c r="I75" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>132</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>134</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>138</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>138</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>144</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>81</v>
       </c>
@@ -4308,8 +4311,11 @@
       <c r="H97" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>163</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>164</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>165</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>151</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>168</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>169</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>171</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>173</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>177</v>
       </c>
